--- a/annex-2-3/mappings/Buildings/2D/Unterlagen/TabellenCurrentUse/AX_Bauwerksfunktion_BauwerkImGewaesserbereich.xlsx
+++ b/annex-2-3/mappings/Buildings/2D/Unterlagen/TabellenCurrentUse/AX_Bauwerksfunktion_BauwerkImGewaesserbereich.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna Ott\git\adv-inspire-alignments\annex-2-3\mappings6.0\Buildings\2D\Unterlagen\TabellenCurrentUse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathanael Seitz\Documents\Git Repos\adv-inspire-alignments\annex-2-3\mappings\Buildings\2D\Unterlagen\TabellenCurrentUse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215A4829-32EF-4DA1-BB8E-3B060804FBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14204C3-A42B-455A-A5FF-3B876E633683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B8EADCD-CB5A-47B0-A470-388E7B967B72}"/>
+    <workbookView xWindow="31740" yWindow="795" windowWidth="23010" windowHeight="12330" xr2:uid="{4B8EADCD-CB5A-47B0-A470-388E7B967B72}"/>
   </bookViews>
   <sheets>
     <sheet name="AX_Bauwerksfunktion_BauwerkImGe" sheetId="1" r:id="rId1"/>
@@ -140,17 +140,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -166,9 +165,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +205,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -312,7 +311,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,7 +453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -465,16 +464,16 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,12 +490,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5">
-        <v>2023</v>
+      <c r="B2">
+        <v>2013</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -504,7 +503,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -515,7 +514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -526,7 +525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -537,7 +536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -548,7 +547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -559,7 +558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -570,7 +569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -581,7 +580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
